--- a/sample_excel/Cat_g-imp-02-category.xlsx
+++ b/sample_excel/Cat_g-imp-02-category.xlsx
@@ -4,6 +4,7 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="シート1" sheetId="1" r:id="rId3"/>
+    <sheet state="visible" name="シート2" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="83">
   <si>
     <t>big_category_id</t>
   </si>
@@ -22,12 +23,18 @@
     <t>テント・ツェルト</t>
   </si>
   <si>
+    <t>テント / ツェルト</t>
+  </si>
+  <si>
     <t>タープ・シェルター</t>
   </si>
   <si>
     <t>テントアクセサリー</t>
   </si>
   <si>
+    <t>タープ / シェルター</t>
+  </si>
+  <si>
     <t>その他</t>
   </si>
   <si>
@@ -52,9 +59,15 @@
     <t>燃料式ランタン</t>
   </si>
   <si>
+    <t>シュラフ / マット</t>
+  </si>
+  <si>
     <t>電池式ランタン・ライト</t>
   </si>
   <si>
+    <t>コット / ベッド</t>
+  </si>
+  <si>
     <t>ツーバーナー</t>
   </si>
   <si>
@@ -67,6 +80,9 @@
     <t>薪ストーブ・ヒーター</t>
   </si>
   <si>
+    <t>電池式ランタン / ライト</t>
+  </si>
+  <si>
     <t>ガスタイプ</t>
   </si>
   <si>
@@ -76,9 +92,15 @@
     <t>固体燃料</t>
   </si>
   <si>
+    <t>グリル / 焚き火台</t>
+  </si>
+  <si>
     <t>薪・炭</t>
   </si>
   <si>
+    <t>薪ストーブ / ヒーター</t>
+  </si>
+  <si>
     <t>テーブルウェア</t>
   </si>
   <si>
@@ -91,6 +113,9 @@
     <t>キッチンツール</t>
   </si>
   <si>
+    <t>薪 / 炭</t>
+  </si>
+  <si>
     <t>ジャグ・ウォーターキャリー</t>
   </si>
   <si>
@@ -109,9 +134,15 @@
     <t>手斧・ノコギリ</t>
   </si>
   <si>
+    <t>ケトル / パーコレーター</t>
+  </si>
+  <si>
     <t>キャリー・カート</t>
   </si>
   <si>
+    <t>ジャグ / ウォーターキャリー</t>
+  </si>
+  <si>
     <t>カラビナ・ロープ</t>
   </si>
   <si>
@@ -121,6 +152,9 @@
     <t>時計・高度計・コンパス</t>
   </si>
   <si>
+    <t>水筒 / ボトル</t>
+  </si>
+  <si>
     <t>防水・撥水スプレー</t>
   </si>
   <si>
@@ -190,13 +224,43 @@
     <t>カヌー・カヤック</t>
   </si>
   <si>
+    <t>手斧 / ノコギリ</t>
+  </si>
+  <si>
     <t>フィッシング</t>
   </si>
   <si>
     <t>スキー・スノーボード</t>
   </si>
   <si>
+    <t>キャリー / カート</t>
+  </si>
+  <si>
     <t>トラベル</t>
+  </si>
+  <si>
+    <t>カラビナ / ロープ</t>
+  </si>
+  <si>
+    <t>防虫 / 殺虫用品</t>
+  </si>
+  <si>
+    <t>時計 / 高度計 / コンパス</t>
+  </si>
+  <si>
+    <t>防水 / 撥水スプレー</t>
+  </si>
+  <si>
+    <t>バックパック / デイパック</t>
+  </si>
+  <si>
+    <t>トラベルバッグ / ポーチ</t>
+  </si>
+  <si>
+    <t>カヌー / カヤック</t>
+  </si>
+  <si>
+    <t>スキー / スノーボード</t>
   </si>
 </sst>
 </file>
@@ -250,6 +314,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
@@ -277,7 +345,7 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -285,7 +353,7 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -293,7 +361,7 @@
         <v>1.0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -301,7 +369,7 @@
         <v>1.0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -309,7 +377,7 @@
         <v>2.0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -317,7 +385,7 @@
         <v>2.0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -325,7 +393,7 @@
         <v>2.0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -333,7 +401,7 @@
         <v>3.0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
@@ -341,7 +409,7 @@
         <v>3.0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11">
@@ -349,7 +417,7 @@
         <v>3.0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12">
@@ -357,7 +425,7 @@
         <v>3.0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
@@ -365,7 +433,7 @@
         <v>3.0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -373,7 +441,7 @@
         <v>4.0</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15">
@@ -381,7 +449,7 @@
         <v>4.0</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16">
@@ -389,7 +457,7 @@
         <v>4.0</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -397,7 +465,7 @@
         <v>5.0</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
@@ -405,7 +473,7 @@
         <v>5.0</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19">
@@ -413,7 +481,7 @@
         <v>5.0</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20">
@@ -421,7 +489,7 @@
         <v>5.0</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21">
@@ -429,7 +497,7 @@
         <v>5.0</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -437,7 +505,7 @@
         <v>6.0</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23">
@@ -445,7 +513,7 @@
         <v>6.0</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24">
@@ -453,7 +521,7 @@
         <v>6.0</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25">
@@ -461,7 +529,7 @@
         <v>6.0</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26">
@@ -469,7 +537,7 @@
         <v>6.0</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27">
@@ -477,7 +545,7 @@
         <v>6.0</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28">
@@ -485,7 +553,7 @@
         <v>7.0</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29">
@@ -493,7 +561,7 @@
         <v>7.0</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30">
@@ -501,7 +569,7 @@
         <v>7.0</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31">
@@ -509,7 +577,7 @@
         <v>7.0</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32">
@@ -517,7 +585,7 @@
         <v>7.0</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33">
@@ -525,7 +593,7 @@
         <v>7.0</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34">
@@ -533,7 +601,7 @@
         <v>7.0</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35">
@@ -541,7 +609,7 @@
         <v>7.0</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36">
@@ -549,7 +617,7 @@
         <v>8.0</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37">
@@ -557,7 +625,7 @@
         <v>8.0</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38">
@@ -565,7 +633,7 @@
         <v>8.0</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39">
@@ -573,7 +641,7 @@
         <v>8.0</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40">
@@ -581,7 +649,7 @@
         <v>9.0</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41">
@@ -589,7 +657,7 @@
         <v>9.0</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42">
@@ -597,7 +665,7 @@
         <v>9.0</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43">
@@ -605,7 +673,7 @@
         <v>9.0</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>35</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44">
@@ -613,7 +681,7 @@
         <v>9.0</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45">
@@ -621,7 +689,7 @@
         <v>9.0</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46">
@@ -629,7 +697,7 @@
         <v>10.0</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47">
@@ -637,7 +705,7 @@
         <v>10.0</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48">
@@ -645,7 +713,7 @@
         <v>10.0</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49">
@@ -653,7 +721,7 @@
         <v>10.0</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50">
@@ -661,7 +729,7 @@
         <v>10.0</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
     </row>
     <row r="51">
@@ -669,7 +737,7 @@
         <v>10.0</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52">
@@ -677,7 +745,7 @@
         <v>11.0</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53">
@@ -685,7 +753,7 @@
         <v>11.0</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54">
@@ -693,7 +761,7 @@
         <v>11.0</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55">
@@ -701,7 +769,7 @@
         <v>11.0</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="56">
@@ -709,7 +777,7 @@
         <v>11.0</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="57">
@@ -717,7 +785,7 @@
         <v>11.0</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
     </row>
     <row r="58">
@@ -725,7 +793,7 @@
         <v>11.0</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59">
@@ -733,7 +801,7 @@
         <v>11.0</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60">
@@ -741,7 +809,7 @@
         <v>11.0</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61">
@@ -749,7 +817,7 @@
         <v>12.0</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="62">
@@ -757,7 +825,7 @@
         <v>12.0</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
     </row>
     <row r="63">
@@ -765,7 +833,7 @@
         <v>12.0</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="64">
@@ -773,7 +841,7 @@
         <v>12.0</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65">
@@ -781,7 +849,7 @@
         <v>13.0</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66">
@@ -789,7 +857,7 @@
         <v>13.0</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67">
@@ -797,7 +865,7 @@
         <v>13.0</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68">
@@ -805,7 +873,7 @@
         <v>14.0</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
     </row>
     <row r="69">
@@ -813,7 +881,7 @@
         <v>14.0</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
     </row>
     <row r="70">
@@ -821,7 +889,7 @@
         <v>14.0</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
     </row>
     <row r="71">
@@ -829,7 +897,7 @@
         <v>14.0</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
     </row>
     <row r="72">
@@ -837,7 +905,7 @@
         <v>14.0</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
     </row>
     <row r="73">
@@ -845,7 +913,7 @@
         <v>14.0</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
     </row>
     <row r="74">
@@ -853,7 +921,7 @@
         <v>14.0</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
     </row>
     <row r="75">
@@ -861,7 +929,7 @@
         <v>14.0</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76">
@@ -3638,6 +3706,621 @@
     </row>
     <row r="1000">
       <c r="A1000" s="3"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/sample_excel/Cat_g-imp-02-category.xlsx
+++ b/sample_excel/Cat_g-imp-02-category.xlsx
@@ -20,129 +20,225 @@
     <t>name</t>
   </si>
   <si>
+    <t>テント / シェルター</t>
+  </si>
+  <si>
+    <t>タープ</t>
+  </si>
+  <si>
+    <t>テントアクセサリー</t>
+  </si>
+  <si>
+    <t>その他</t>
+  </si>
+  <si>
+    <t>チェア</t>
+  </si>
+  <si>
+    <t>テーブル</t>
+  </si>
+  <si>
+    <t>シュラフ / マット</t>
+  </si>
+  <si>
+    <t>コット / ベッド</t>
+  </si>
+  <si>
+    <t>ピロー（枕）</t>
+  </si>
+  <si>
+    <t>アクセサリー</t>
+  </si>
+  <si>
+    <t>燃料式ランタン</t>
+  </si>
+  <si>
+    <t>電池式ランタン / ライト</t>
+  </si>
+  <si>
+    <t>ツーバーナー</t>
+  </si>
+  <si>
+    <t>シングルバーナー</t>
+  </si>
+  <si>
+    <t>グリル / 焚き火台</t>
+  </si>
+  <si>
+    <t>薪ストーブ / ヒーター</t>
+  </si>
+  <si>
+    <t>ガスタイプ</t>
+  </si>
+  <si>
+    <t>液体燃料</t>
+  </si>
+  <si>
+    <t>固体燃料</t>
+  </si>
+  <si>
+    <t>薪 / 炭</t>
+  </si>
+  <si>
+    <t>テーブルウェア</t>
+  </si>
+  <si>
+    <t>クッカー</t>
+  </si>
+  <si>
+    <t>ケトル / パーコレーター</t>
+  </si>
+  <si>
+    <t>キッチンツール</t>
+  </si>
+  <si>
+    <t>ジャグ / ウォーターキャリー</t>
+  </si>
+  <si>
+    <t>クーラー</t>
+  </si>
+  <si>
+    <t>水筒 / ボトル</t>
+  </si>
+  <si>
+    <t>マルチツール</t>
+  </si>
+  <si>
+    <t>ナイフ</t>
+  </si>
+  <si>
+    <t>手斧 / ノコギリ</t>
+  </si>
+  <si>
+    <t>キャリー / カート</t>
+  </si>
+  <si>
+    <t>カラビナ / ロープ</t>
+  </si>
+  <si>
+    <t>防虫 / 殺虫用品</t>
+  </si>
+  <si>
+    <t>時計 / 高度計 / コンパス</t>
+  </si>
+  <si>
+    <t>防水 / 撥水スプレー</t>
+  </si>
+  <si>
+    <t>バックパック / デイパック</t>
+  </si>
+  <si>
+    <t>メッセンジャーバッグ</t>
+  </si>
+  <si>
+    <t>トートバッグ</t>
+  </si>
+  <si>
+    <t>ショルダーバッグ</t>
+  </si>
+  <si>
+    <t>トラベルバッグ / ポーチ</t>
+  </si>
+  <si>
+    <t>アウター</t>
+  </si>
+  <si>
+    <t>トップス</t>
+  </si>
+  <si>
+    <t>ボトムス</t>
+  </si>
+  <si>
+    <t>インナーウェア</t>
+  </si>
+  <si>
+    <t>アンダーウェア</t>
+  </si>
+  <si>
+    <t>ウェアアクセサリー</t>
+  </si>
+  <si>
+    <t>レインウェア</t>
+  </si>
+  <si>
+    <t>アイウェア</t>
+  </si>
+  <si>
+    <t>スニーカー</t>
+  </si>
+  <si>
+    <t>サンダル</t>
+  </si>
+  <si>
+    <t>ブーツ</t>
+  </si>
+  <si>
+    <t>ウェア</t>
+  </si>
+  <si>
+    <t>グッズ</t>
+  </si>
+  <si>
+    <t>トレッキング</t>
+  </si>
+  <si>
+    <t>クライミング</t>
+  </si>
+  <si>
+    <t>サイクル</t>
+  </si>
+  <si>
+    <t>カヌー / カヤック</t>
+  </si>
+  <si>
+    <t>フィッシング</t>
+  </si>
+  <si>
+    <t>スキー / スノーボード</t>
+  </si>
+  <si>
+    <t>トラベル</t>
+  </si>
+  <si>
     <t>テント・ツェルト</t>
   </si>
   <si>
-    <t>テント / ツェルト</t>
-  </si>
-  <si>
     <t>タープ・シェルター</t>
   </si>
   <si>
-    <t>テントアクセサリー</t>
-  </si>
-  <si>
-    <t>タープ / シェルター</t>
-  </si>
-  <si>
-    <t>その他</t>
-  </si>
-  <si>
-    <t>チェア</t>
-  </si>
-  <si>
-    <t>テーブル</t>
-  </si>
-  <si>
     <t>マット</t>
   </si>
   <si>
     <t>コット・ベッド</t>
   </si>
   <si>
-    <t>ピロー（枕）</t>
-  </si>
-  <si>
-    <t>アクセサリー</t>
-  </si>
-  <si>
-    <t>燃料式ランタン</t>
-  </si>
-  <si>
-    <t>シュラフ / マット</t>
-  </si>
-  <si>
     <t>電池式ランタン・ライト</t>
   </si>
   <si>
-    <t>コット / ベッド</t>
-  </si>
-  <si>
-    <t>ツーバーナー</t>
-  </si>
-  <si>
-    <t>シングルバーナー</t>
-  </si>
-  <si>
     <t>グリル・焚き火台</t>
   </si>
   <si>
     <t>薪ストーブ・ヒーター</t>
   </si>
   <si>
-    <t>電池式ランタン / ライト</t>
-  </si>
-  <si>
-    <t>ガスタイプ</t>
-  </si>
-  <si>
-    <t>液体燃料</t>
-  </si>
-  <si>
-    <t>固体燃料</t>
-  </si>
-  <si>
-    <t>グリル / 焚き火台</t>
-  </si>
-  <si>
     <t>薪・炭</t>
   </si>
   <si>
-    <t>薪ストーブ / ヒーター</t>
-  </si>
-  <si>
-    <t>テーブルウェア</t>
-  </si>
-  <si>
-    <t>クッカー</t>
-  </si>
-  <si>
     <t>ケトル・パーコレーター</t>
   </si>
   <si>
-    <t>キッチンツール</t>
-  </si>
-  <si>
-    <t>薪 / 炭</t>
-  </si>
-  <si>
     <t>ジャグ・ウォーターキャリー</t>
   </si>
   <si>
-    <t>クーラー</t>
-  </si>
-  <si>
     <t>水筒・ボトル</t>
   </si>
   <si>
-    <t>マルチツール</t>
-  </si>
-  <si>
-    <t>ナイフ</t>
-  </si>
-  <si>
     <t>手斧・ノコギリ</t>
   </si>
   <si>
-    <t>ケトル / パーコレーター</t>
-  </si>
-  <si>
     <t>キャリー・カート</t>
   </si>
   <si>
-    <t>ジャグ / ウォーターキャリー</t>
-  </si>
-  <si>
     <t>カラビナ・ロープ</t>
   </si>
   <si>
@@ -152,115 +248,19 @@
     <t>時計・高度計・コンパス</t>
   </si>
   <si>
-    <t>水筒 / ボトル</t>
-  </si>
-  <si>
     <t>防水・撥水スプレー</t>
   </si>
   <si>
     <t>バックパック・デイパック</t>
   </si>
   <si>
-    <t>メッセンジャーバッグ</t>
-  </si>
-  <si>
-    <t>トートバッグ</t>
-  </si>
-  <si>
-    <t>ショルダーバッグ</t>
-  </si>
-  <si>
     <t>トラベルバッグ・ポーチ</t>
   </si>
   <si>
-    <t>アウター</t>
-  </si>
-  <si>
-    <t>トップス</t>
-  </si>
-  <si>
-    <t>ボトムス</t>
-  </si>
-  <si>
-    <t>インナーウェア</t>
-  </si>
-  <si>
-    <t>アンダーウェア</t>
-  </si>
-  <si>
-    <t>ウェアアクセサリー</t>
-  </si>
-  <si>
-    <t>レインウェア</t>
-  </si>
-  <si>
-    <t>アイウェア</t>
-  </si>
-  <si>
-    <t>スニーカー</t>
-  </si>
-  <si>
-    <t>サンダル</t>
-  </si>
-  <si>
-    <t>ブーツ</t>
-  </si>
-  <si>
-    <t>ウェア</t>
-  </si>
-  <si>
-    <t>グッズ</t>
-  </si>
-  <si>
-    <t>トレッキング</t>
-  </si>
-  <si>
-    <t>クライミング</t>
-  </si>
-  <si>
-    <t>サイクル</t>
-  </si>
-  <si>
     <t>カヌー・カヤック</t>
   </si>
   <si>
-    <t>手斧 / ノコギリ</t>
-  </si>
-  <si>
-    <t>フィッシング</t>
-  </si>
-  <si>
     <t>スキー・スノーボード</t>
-  </si>
-  <si>
-    <t>キャリー / カート</t>
-  </si>
-  <si>
-    <t>トラベル</t>
-  </si>
-  <si>
-    <t>カラビナ / ロープ</t>
-  </si>
-  <si>
-    <t>防虫 / 殺虫用品</t>
-  </si>
-  <si>
-    <t>時計 / 高度計 / コンパス</t>
-  </si>
-  <si>
-    <t>防水 / 撥水スプレー</t>
-  </si>
-  <si>
-    <t>バックパック / デイパック</t>
-  </si>
-  <si>
-    <t>トラベルバッグ / ポーチ</t>
-  </si>
-  <si>
-    <t>カヌー / カヤック</t>
-  </si>
-  <si>
-    <t>スキー / スノーボード</t>
   </si>
 </sst>
 </file>
@@ -345,7 +345,7 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -353,7 +353,7 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -361,7 +361,7 @@
         <v>1.0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -369,7 +369,7 @@
         <v>1.0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -377,7 +377,7 @@
         <v>2.0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -385,7 +385,7 @@
         <v>2.0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -393,7 +393,7 @@
         <v>2.0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -401,7 +401,7 @@
         <v>3.0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -409,7 +409,7 @@
         <v>3.0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -417,7 +417,7 @@
         <v>3.0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -425,7 +425,7 @@
         <v>3.0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13">
@@ -433,7 +433,7 @@
         <v>3.0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -441,7 +441,7 @@
         <v>4.0</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15">
@@ -449,7 +449,7 @@
         <v>4.0</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
@@ -457,7 +457,7 @@
         <v>4.0</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -465,7 +465,7 @@
         <v>5.0</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18">
@@ -473,7 +473,7 @@
         <v>5.0</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19">
@@ -481,7 +481,7 @@
         <v>5.0</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20">
@@ -489,7 +489,7 @@
         <v>5.0</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21">
@@ -497,7 +497,7 @@
         <v>5.0</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -505,7 +505,7 @@
         <v>6.0</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23">
@@ -513,7 +513,7 @@
         <v>6.0</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24">
@@ -521,7 +521,7 @@
         <v>6.0</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25">
@@ -529,7 +529,7 @@
         <v>6.0</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26">
@@ -537,7 +537,7 @@
         <v>6.0</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27">
@@ -545,7 +545,7 @@
         <v>6.0</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28">
@@ -553,7 +553,7 @@
         <v>7.0</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29">
@@ -561,7 +561,7 @@
         <v>7.0</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30">
@@ -569,7 +569,7 @@
         <v>7.0</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31">
@@ -577,7 +577,7 @@
         <v>7.0</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32">
@@ -585,7 +585,7 @@
         <v>7.0</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33">
@@ -593,7 +593,7 @@
         <v>7.0</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34">
@@ -601,7 +601,7 @@
         <v>7.0</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35">
@@ -609,7 +609,7 @@
         <v>7.0</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36">
@@ -617,7 +617,7 @@
         <v>8.0</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37">
@@ -625,7 +625,7 @@
         <v>8.0</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38">
@@ -633,7 +633,7 @@
         <v>8.0</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39">
@@ -641,7 +641,7 @@
         <v>8.0</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40">
@@ -649,7 +649,7 @@
         <v>9.0</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41">
@@ -657,7 +657,7 @@
         <v>9.0</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42">
@@ -665,7 +665,7 @@
         <v>9.0</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>76</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43">
@@ -673,7 +673,7 @@
         <v>9.0</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44">
@@ -681,7 +681,7 @@
         <v>9.0</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45">
@@ -689,7 +689,7 @@
         <v>9.0</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46">
@@ -697,7 +697,7 @@
         <v>10.0</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>79</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47">
@@ -705,7 +705,7 @@
         <v>10.0</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48">
@@ -713,7 +713,7 @@
         <v>10.0</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49">
@@ -721,7 +721,7 @@
         <v>10.0</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50">
@@ -729,7 +729,7 @@
         <v>10.0</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>80</v>
+        <v>41</v>
       </c>
     </row>
     <row r="51">
@@ -737,7 +737,7 @@
         <v>10.0</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52">
@@ -745,7 +745,7 @@
         <v>11.0</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="53">
@@ -753,7 +753,7 @@
         <v>11.0</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="54">
@@ -761,7 +761,7 @@
         <v>11.0</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55">
@@ -769,7 +769,7 @@
         <v>11.0</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56">
@@ -777,7 +777,7 @@
         <v>11.0</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="57">
@@ -785,7 +785,7 @@
         <v>11.0</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="58">
@@ -793,7 +793,7 @@
         <v>11.0</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="59">
@@ -801,7 +801,7 @@
         <v>11.0</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="60">
@@ -809,7 +809,7 @@
         <v>11.0</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61">
@@ -817,7 +817,7 @@
         <v>12.0</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="62">
@@ -825,7 +825,7 @@
         <v>12.0</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="63">
@@ -833,7 +833,7 @@
         <v>12.0</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="64">
@@ -841,7 +841,7 @@
         <v>12.0</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65">
@@ -849,7 +849,7 @@
         <v>13.0</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="66">
@@ -857,7 +857,7 @@
         <v>13.0</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="67">
@@ -865,7 +865,7 @@
         <v>13.0</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68">
@@ -873,7 +873,7 @@
         <v>14.0</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="69">
@@ -881,7 +881,7 @@
         <v>14.0</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="70">
@@ -889,7 +889,7 @@
         <v>14.0</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="71">
@@ -897,7 +897,7 @@
         <v>14.0</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
     </row>
     <row r="72">
@@ -905,7 +905,7 @@
         <v>14.0</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
     </row>
     <row r="73">
@@ -913,7 +913,7 @@
         <v>14.0</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
     </row>
     <row r="74">
@@ -921,7 +921,7 @@
         <v>14.0</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
     </row>
     <row r="75">
@@ -929,7 +929,7 @@
         <v>14.0</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76">
@@ -3735,7 +3735,7 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3">
@@ -3743,7 +3743,7 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
@@ -3751,7 +3751,7 @@
         <v>1.0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -3759,7 +3759,7 @@
         <v>1.0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -3767,7 +3767,7 @@
         <v>2.0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -3775,7 +3775,7 @@
         <v>2.0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -3783,7 +3783,7 @@
         <v>2.0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -3791,7 +3791,7 @@
         <v>3.0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10">
@@ -3799,7 +3799,7 @@
         <v>3.0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11">
@@ -3807,7 +3807,7 @@
         <v>3.0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -3815,7 +3815,7 @@
         <v>3.0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13">
@@ -3823,7 +3823,7 @@
         <v>3.0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -3831,7 +3831,7 @@
         <v>4.0</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15">
@@ -3839,7 +3839,7 @@
         <v>4.0</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16">
@@ -3847,7 +3847,7 @@
         <v>4.0</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -3855,7 +3855,7 @@
         <v>5.0</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18">
@@ -3863,7 +3863,7 @@
         <v>5.0</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19">
@@ -3871,7 +3871,7 @@
         <v>5.0</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20">
@@ -3879,7 +3879,7 @@
         <v>5.0</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21">
@@ -3887,7 +3887,7 @@
         <v>5.0</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -3895,7 +3895,7 @@
         <v>6.0</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23">
@@ -3903,7 +3903,7 @@
         <v>6.0</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24">
@@ -3911,7 +3911,7 @@
         <v>6.0</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25">
@@ -3919,7 +3919,7 @@
         <v>6.0</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26">
@@ -3927,7 +3927,7 @@
         <v>6.0</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27">
@@ -3935,7 +3935,7 @@
         <v>6.0</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28">
@@ -3943,7 +3943,7 @@
         <v>7.0</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29">
@@ -3951,7 +3951,7 @@
         <v>7.0</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30">
@@ -3959,7 +3959,7 @@
         <v>7.0</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31">
@@ -3967,7 +3967,7 @@
         <v>7.0</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32">
@@ -3975,7 +3975,7 @@
         <v>7.0</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33">
@@ -3983,7 +3983,7 @@
         <v>7.0</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34">
@@ -3991,7 +3991,7 @@
         <v>7.0</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35">
@@ -3999,7 +3999,7 @@
         <v>7.0</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36">
@@ -4007,7 +4007,7 @@
         <v>8.0</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37">
@@ -4015,7 +4015,7 @@
         <v>8.0</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38">
@@ -4023,7 +4023,7 @@
         <v>8.0</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39">
@@ -4031,7 +4031,7 @@
         <v>8.0</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40">
@@ -4039,7 +4039,7 @@
         <v>9.0</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41">
@@ -4047,7 +4047,7 @@
         <v>9.0</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42">
@@ -4055,7 +4055,7 @@
         <v>9.0</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43">
@@ -4063,7 +4063,7 @@
         <v>9.0</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44">
@@ -4071,7 +4071,7 @@
         <v>9.0</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45">
@@ -4079,7 +4079,7 @@
         <v>9.0</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46">
@@ -4087,7 +4087,7 @@
         <v>10.0</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47">
@@ -4095,7 +4095,7 @@
         <v>10.0</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48">
@@ -4103,7 +4103,7 @@
         <v>10.0</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49">
@@ -4111,7 +4111,7 @@
         <v>10.0</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50">
@@ -4119,7 +4119,7 @@
         <v>10.0</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
     </row>
     <row r="51">
@@ -4127,7 +4127,7 @@
         <v>10.0</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52">
@@ -4135,7 +4135,7 @@
         <v>11.0</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="53">
@@ -4143,7 +4143,7 @@
         <v>11.0</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="54">
@@ -4151,7 +4151,7 @@
         <v>11.0</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55">
@@ -4159,7 +4159,7 @@
         <v>11.0</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56">
@@ -4167,7 +4167,7 @@
         <v>11.0</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="57">
@@ -4175,7 +4175,7 @@
         <v>11.0</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="58">
@@ -4183,7 +4183,7 @@
         <v>11.0</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="59">
@@ -4191,7 +4191,7 @@
         <v>11.0</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="60">
@@ -4199,7 +4199,7 @@
         <v>11.0</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61">
@@ -4207,7 +4207,7 @@
         <v>12.0</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="62">
@@ -4215,7 +4215,7 @@
         <v>12.0</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="63">
@@ -4223,7 +4223,7 @@
         <v>12.0</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="64">
@@ -4231,7 +4231,7 @@
         <v>12.0</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65">
@@ -4239,7 +4239,7 @@
         <v>13.0</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="66">
@@ -4247,7 +4247,7 @@
         <v>13.0</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="67">
@@ -4255,7 +4255,7 @@
         <v>13.0</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68">
@@ -4263,7 +4263,7 @@
         <v>14.0</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="69">
@@ -4271,7 +4271,7 @@
         <v>14.0</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="70">
@@ -4279,7 +4279,7 @@
         <v>14.0</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="71">
@@ -4287,7 +4287,7 @@
         <v>14.0</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
     </row>
     <row r="72">
@@ -4295,7 +4295,7 @@
         <v>14.0</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
     </row>
     <row r="73">
@@ -4303,7 +4303,7 @@
         <v>14.0</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
     </row>
     <row r="74">
@@ -4311,7 +4311,7 @@
         <v>14.0</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
     </row>
     <row r="75">
@@ -4319,7 +4319,7 @@
         <v>14.0</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/sample_excel/Cat_g-imp-02-category.xlsx
+++ b/sample_excel/Cat_g-imp-02-category.xlsx
@@ -4,7 +4,6 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="シート1" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="シート2" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -12,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="62">
   <si>
     <t>big_category_id</t>
   </si>
@@ -198,69 +197,6 @@
   </si>
   <si>
     <t>トラベル</t>
-  </si>
-  <si>
-    <t>テント・ツェルト</t>
-  </si>
-  <si>
-    <t>タープ・シェルター</t>
-  </si>
-  <si>
-    <t>マット</t>
-  </si>
-  <si>
-    <t>コット・ベッド</t>
-  </si>
-  <si>
-    <t>電池式ランタン・ライト</t>
-  </si>
-  <si>
-    <t>グリル・焚き火台</t>
-  </si>
-  <si>
-    <t>薪ストーブ・ヒーター</t>
-  </si>
-  <si>
-    <t>薪・炭</t>
-  </si>
-  <si>
-    <t>ケトル・パーコレーター</t>
-  </si>
-  <si>
-    <t>ジャグ・ウォーターキャリー</t>
-  </si>
-  <si>
-    <t>水筒・ボトル</t>
-  </si>
-  <si>
-    <t>手斧・ノコギリ</t>
-  </si>
-  <si>
-    <t>キャリー・カート</t>
-  </si>
-  <si>
-    <t>カラビナ・ロープ</t>
-  </si>
-  <si>
-    <t>防虫・殺虫用品</t>
-  </si>
-  <si>
-    <t>時計・高度計・コンパス</t>
-  </si>
-  <si>
-    <t>防水・撥水スプレー</t>
-  </si>
-  <si>
-    <t>バックパック・デイパック</t>
-  </si>
-  <si>
-    <t>トラベルバッグ・ポーチ</t>
-  </si>
-  <si>
-    <t>カヌー・カヤック</t>
-  </si>
-  <si>
-    <t>スキー・スノーボード</t>
   </si>
 </sst>
 </file>
@@ -314,10 +250,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
@@ -3710,619 +3642,4 @@
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1">
-        <v>13.0</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1">
-        <v>13.0</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1">
-        <v>13.0</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1">
-        <v>14.0</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1">
-        <v>14.0</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1">
-        <v>14.0</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1">
-        <v>14.0</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1">
-        <v>14.0</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1">
-        <v>14.0</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1">
-        <v>14.0</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1">
-        <v>14.0</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>